--- a/fortunella/pl/Fortunella PL .xlsx
+++ b/fortunella/pl/Fortunella PL .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
   <si>
     <t>Fortunella</t>
   </si>
@@ -37,7 +37,15 @@
     <t>DO 5 KILOGRAMÓW TYGODNIOWO</t>
   </si>
   <si>
-    <t>RABAT</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>ZNIŻKA</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>50%</t>
@@ -55,7 +63,15 @@
     <t>Tonizują i zasilają energią</t>
   </si>
   <si>
-    <t>Dawna cena</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Stara</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> cena</t>
+    </r>
   </si>
   <si>
     <t>338 PLN</t>
@@ -82,10 +98,32 @@
     <t>Sekund</t>
   </si>
   <si>
-    <t>ZAMÓW Z RABATEM</t>
-  </si>
-  <si>
-    <t>Na składzie pozostało</t>
+    <r>
+      <t xml:space="preserve">ZAMÓW </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>W PROMOCJI</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>magazynku</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> pozostało</t>
+    </r>
   </si>
   <si>
     <t>10 sztuk</t>
@@ -155,6 +193,20 @@
     <t>Jest to potężny spalacz naturalny tłuszczu, który stymuluje lokalny metabolizm, rozkłada tłuszcz podskórny i ułatwia utratę wagi.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">ZAMÓW </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>W PROMOCJI</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>Powody, dla których warto kupić Fortunella już teraz</t>
   </si>
   <si>
@@ -221,6 +273,20 @@
     <t>cellulit i rozstępy pozostałe po odchudzaniu (w przeciwieństwie do restrykcyjnych diet, po których człowiek boryka się z problemem rozstępów i zwiotczenia skóry)</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">ZAMÓW </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>W PROMOCJI</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>Producent о Fortunella</t>
   </si>
   <si>
@@ -266,7 +332,18 @@
     <t>nie pomijając</t>
   </si>
   <si>
-    <t>ani jednej nominacji.</t>
+    <r>
+      <t xml:space="preserve">ani jednej </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>dawki</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>Nie zwiększaj dawki,</t>
@@ -311,16 +388,46 @@
     <t>Jak złożyć zamówienie?</t>
   </si>
   <si>
-    <t>Wniosek</t>
-  </si>
-  <si>
-    <t>Zostawiasz wniosek na naszej stronie internetowej.</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Zamówienie</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zostawiasz </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>zamówienie</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> na naszej stronie internetowej.</t>
+    </r>
   </si>
   <si>
     <t>Połączenie</t>
   </si>
   <si>
-    <t>Nasz pracownik skontaktuje się z Tobą w celu złożenia zamówienia.</t>
+    <r>
+      <t xml:space="preserve">Nasz </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>konsultant</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> skontaktuje się z Tobą w celu złożenia zamówienia.</t>
+    </r>
   </si>
   <si>
     <t>Dostawa</t>
@@ -335,13 +442,47 @@
     <t>Za zamówienie płacisz przy odbiorze.</t>
   </si>
   <si>
+    <t>RABAT</t>
+  </si>
+  <si>
     <t>Kontrolują apetyt.</t>
   </si>
   <si>
     <t>Tonizują i energetyzują</t>
   </si>
   <si>
+    <t>Dawna cena</t>
+  </si>
+  <si>
     <t>Do zakończenia promocji zostało:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZAMÓW </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>W PROMOCJI</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>magazynku</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> pozostało</t>
+    </r>
   </si>
   <si>
     <t>10 szt</t>
@@ -1357,132 +1498,132 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -1492,32 +1633,32 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -1527,157 +1668,157 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -1712,7 +1853,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -1722,7 +1863,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -1737,12 +1878,12 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -1762,7 +1903,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -1792,47 +1933,47 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -4417,42 +4558,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
